--- a/resources/SistemasOrdenanzas.xlsx
+++ b/resources/SistemasOrdenanzas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202898\Documents\NetBeansProjects\vehiculos2025\resources\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -85,6 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,510 +439,510 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="8" max="9" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.140625"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375"/>
+    <col min="3" max="3" customWidth="true" width="46.0"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625"/>
+    <col min="8" max="9" customWidth="true" width="20.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0">
         <v>7.99</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>20.95</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>11.99</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>58.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>12</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>15.99</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>128.94999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>19.989999999999998</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>167.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="A6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>20</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>9999</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>209.4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
         <v>20</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>140.15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>21</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>50</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>199.35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>51</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>9999</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>240.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
         <v>999</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>1000</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>2999</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>140.15</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>3000</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>9999</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>208.45</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>10000</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>9999999</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>271.85000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="0">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0">
         <v>15.99</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>29.9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>16</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>25</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>46.9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0">
         <v>25.01</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>9999</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>140.15</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0">
         <v>751</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>999</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>29.9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0">
         <v>1000</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0">
         <v>2999</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>46.9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0">
         <v>3000</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>9999999</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>140.15</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="0">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0">
         <v>49.99</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>8.65</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="0">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0">
         <v>125</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>8.84</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0">
         <v>125.01</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>250</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>15.14</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0">
         <v>250.01</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>500</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>30.3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0">
         <v>500.01</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>1000</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0">
         <v>58.5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0">
         <v>1000.01</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>9999</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>121.16</v>
       </c>
     </row>
